--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2740011.012664412</v>
+        <v>2737804.919257975</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604728</v>
+        <v>7094780.68260473</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9215516.668488534</v>
+        <v>9215516.668488532</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.987377873491296</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208647</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866752</v>
+        <v>69.92680236866698</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776876</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>16.02488196282</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>143.1366597264371</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.9526390315487</v>
+        <v>65.95263903154853</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015513</v>
       </c>
       <c r="S3" t="n">
-        <v>121.4603959503479</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.1356285365752</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6253882365109</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>173.1921620440647</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>62.04669139313345</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>174.1404107077194</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>251.810339262962</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.9730522231948</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1345,13 +1345,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621473</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>264.6171092506983</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
-        <v>24.67936987097346</v>
+        <v>165.8124928026216</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249714</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785992</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.13355668550172</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785987</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785989</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13355668550187</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761691</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>192.7585411682387</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.48447105730222</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3566142959216</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
@@ -3272,7 +3272,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F35" t="n">
         <v>371.3806294556657</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213092</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
@@ -3323,16 +3323,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V35" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700081</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>76.02990583396144</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.62248142456837</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,7 +3509,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
@@ -3560,16 +3560,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700081</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3664,22 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>10.21697608866246</v>
       </c>
       <c r="E40" t="n">
-        <v>60.2985183253934</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880205</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3797,16 +3797,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3904,13 +3904,13 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>8.035465717020255</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
         <v>109.259598628275</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3952,7 +3952,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>37.88770953917728</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
         <v>216.6422270377822</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
         <v>329.7774754849618</v>
@@ -3983,7 +3983,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
         <v>371.3806294556657</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924235</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321666</v>
+        <v>9.550942980052255</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
@@ -4147,10 +4147,10 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4195,7 +4195,7 @@
         <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>38.19886967015581</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
         <v>190.2142391029914</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.4759930851271</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="C2" t="n">
-        <v>239.4759930851271</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="D2" t="n">
-        <v>232.4180356371561</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="E2" t="n">
-        <v>232.4180356371561</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="F2" t="n">
-        <v>225.4725348879527</v>
+        <v>959.2517301244659</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942734</v>
+        <v>541.0395078903825</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942734</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501611</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244774</v>
+        <v>143.3613405244783</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293479</v>
+        <v>406.6417666293499</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024597</v>
+        <v>785.5410436024631</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782765</v>
+        <v>1223.74604078277</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400854</v>
+        <v>1654.40965540086</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671736</v>
+        <v>2015.885456671744</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110668</v>
+        <v>2286.722307110676</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750806</v>
+        <v>2412.887742750815</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045081</v>
+        <v>2342.254609045091</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320144</v>
+        <v>2160.416384320154</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.694284428194</v>
+        <v>1940.694284428204</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.912625935704</v>
+        <v>1686.912625935714</v>
       </c>
       <c r="V2" t="n">
-        <v>1355.849738592133</v>
+        <v>1355.849738592143</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.081083322019</v>
+        <v>1339.662989134749</v>
       </c>
       <c r="X2" t="n">
-        <v>629.6153250609389</v>
+        <v>966.1972308736694</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.4759930851271</v>
+        <v>966.1972308736694</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>692.9710606982819</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>692.9710606982819</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>544.0366510370307</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>399.4541664648719</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6460529188497</v>
+        <v>252.9196084917569</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6030265867035</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501611</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719577</v>
+        <v>111.2074192719583</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503505</v>
+        <v>345.4192653503519</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265928</v>
+        <v>525.9465153519701</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.890288538963</v>
+        <v>1017.086411664341</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987178</v>
+        <v>1536.932332987185</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602201</v>
+        <v>1946.074112602209</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.44339364231</v>
+        <v>2257.443393642319</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750806</v>
+        <v>2412.887742750815</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750806</v>
+        <v>2354.422089841567</v>
       </c>
       <c r="S3" t="n">
-        <v>2290.20047411409</v>
+        <v>2193.780311634272</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.20047411409</v>
+        <v>1994.366029972574</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.022105790298</v>
+        <v>1766.187661648781</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.869997558555</v>
+        <v>1531.035553417038</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.632640830353</v>
+        <v>1276.798196688837</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.78114062482</v>
+        <v>1068.946696483304</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.020841859867</v>
+        <v>861.18639771835</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.0407786978449</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="C4" t="n">
-        <v>462.104595769938</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="D4" t="n">
-        <v>462.104595769938</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="E4" t="n">
-        <v>462.104595769938</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="F4" t="n">
-        <v>315.2146482720276</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9968416694264</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501611</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501611</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501611</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460961</v>
+        <v>91.87143294461023</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384334</v>
+        <v>203.2083598384345</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534272</v>
+        <v>330.986661753429</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692832</v>
+        <v>461.1612976692855</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984499</v>
+        <v>565.3823477984529</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978449</v>
+        <v>631.0407786978483</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978449</v>
+        <v>631.0407786978483</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978449</v>
+        <v>477.8838208831908</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978449</v>
+        <v>302.9422430609032</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978449</v>
+        <v>302.9422430609032</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978449</v>
+        <v>302.9422430609032</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978449</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978449</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978449</v>
+        <v>48.2577548550163</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978449</v>
+        <v>48.2577548550163</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.578376364604</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>867.6158594241924</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>509.3501608174419</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>123.5619082191977</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>116.6164074699942</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1060.400888678774</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2445.177924555589</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.000728742896</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,22 +5039,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5084,7 +5084,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,16 +5212,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1185.770499914444</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>931.0860117085572</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>641.6688416715965</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>413.6792907735792</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,19 +5279,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1772.421240554552</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2750.97154338438</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.5976972681534</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1841.584352426905</v>
+        <v>1507.339758221763</v>
       </c>
       <c r="U16" t="n">
-        <v>1552.481485552549</v>
+        <v>1218.236891347407</v>
       </c>
       <c r="V16" t="n">
-        <v>1297.796997346662</v>
+        <v>963.5524031415194</v>
       </c>
       <c r="W16" t="n">
-        <v>1008.379827309701</v>
+        <v>674.1352331045588</v>
       </c>
       <c r="X16" t="n">
-        <v>780.3902764116835</v>
+        <v>446.1456822065413</v>
       </c>
       <c r="Y16" t="n">
-        <v>559.5976972681534</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5659,22 +5659,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,19 +5753,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5786,7 +5786,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
         <v>3524.42128699119</v>
@@ -5795,7 +5795,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5920,7 +5920,7 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838524</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858351</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.904311342305</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,22 +5987,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
         <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037952</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100823</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100823</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>159.3323038276891</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,25 +6227,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839448</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>645.9151720045575</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610273</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942213</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663145</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539788</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715857</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,19 +6622,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1348.185369361421</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.0445975595953</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C34" t="n">
-        <v>391.1084146316884</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D34" t="n">
-        <v>391.1084146316884</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>391.1084146316884</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>391.1084146316884</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.892362468343</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.475192431382</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X34" t="n">
-        <v>962.485641533365</v>
+        <v>742.942068898644</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.6930623898349</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
@@ -6923,64 +6923,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571337</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>300.5491092028277</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>634.3684828926741</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1498.887298546029</v>
+        <v>1127.292264772048</v>
       </c>
       <c r="M35" t="n">
-        <v>2477.437601375857</v>
+        <v>1660.824169443973</v>
       </c>
       <c r="N35" t="n">
-        <v>3024.21641843464</v>
+        <v>2640.576441670619</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313977</v>
+        <v>3143.548912549956</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671155</v>
+        <v>3856.903999996902</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426837</v>
+        <v>4105.190361752584</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C36" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E36" t="n">
         <v>476.9921777807642</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>611.3642961266008</v>
+        <v>582.2589880867696</v>
       </c>
       <c r="C37" t="n">
-        <v>611.3642961266008</v>
+        <v>449.1767610033534</v>
       </c>
       <c r="D37" t="n">
-        <v>611.3642961266008</v>
+        <v>334.9140774355083</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3051583886984</v>
+        <v>222.8549396976059</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352786</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544883</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="H37" t="n">
         <v>146.0570550168368</v>
       </c>
       <c r="I37" t="n">
-        <v>84.5853336796728</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497933</v>
+        <v>164.8484282497939</v>
       </c>
       <c r="K37" t="n">
-        <v>403.976073321855</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935365</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7108,37 +7108,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q37" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2201.620268963314</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S37" t="n">
-        <v>2045.788340634631</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>1859.875681048648</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U37" t="n">
-        <v>1606.626770018783</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.796237657386</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.233023464916</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>942.0974284113894</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y37" t="n">
-        <v>757.1588051123499</v>
+        <v>728.0534970725187</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151839</v>
@@ -7160,64 +7160,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285448</v>
+        <v>928.1877967739978</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.8026539819</v>
+        <v>1792.706612427352</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>2326.238517099277</v>
       </c>
       <c r="N38" t="n">
-        <v>2985.086830880471</v>
+        <v>2873.017334158059</v>
       </c>
       <c r="O38" t="n">
-        <v>3488.059301759808</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P38" t="n">
-        <v>3882.833668116986</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4131.120029872668</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E39" t="n">
         <v>476.9921777807642</v>
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7312,28 +7312,28 @@
         <v>449.1767610033529</v>
       </c>
       <c r="D40" t="n">
-        <v>449.1767610033529</v>
+        <v>438.8565831360171</v>
       </c>
       <c r="E40" t="n">
-        <v>388.2691667352788</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="F40" t="n">
-        <v>388.2691667352788</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G40" t="n">
-        <v>256.4202859544883</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168368</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497935</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
         <v>755.6763338935366</v>
@@ -7354,25 +7354,25 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923482</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594799</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
         <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.52146197895</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617554</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425084</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715573</v>
+        <v>912.9921203715579</v>
       </c>
       <c r="Y40" t="n">
         <v>728.0534970725182</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571334</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386982</v>
+        <v>273.4644646386984</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285448</v>
+        <v>607.283838328545</v>
       </c>
       <c r="L41" t="n">
-        <v>1058.318051576954</v>
+        <v>1471.8026539819</v>
       </c>
       <c r="M41" t="n">
-        <v>2036.868354406782</v>
+        <v>2005.334558653824</v>
       </c>
       <c r="N41" t="n">
-        <v>3016.620626633429</v>
+        <v>2985.086830880471</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.593097512766</v>
+        <v>3488.059301759808</v>
       </c>
       <c r="P41" t="n">
-        <v>3914.367463869944</v>
+        <v>3882.833668116987</v>
       </c>
       <c r="Q41" t="n">
-        <v>4162.653825625626</v>
+        <v>4131.120029872669</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285981</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474712</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.22963278622</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807645</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076495</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402678</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781352</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506374</v>
       </c>
       <c r="L42" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M42" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N42" t="n">
         <v>1704.024331240073</v>
@@ -7518,13 +7518,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T42" t="n">
-        <v>2260.901519544681</v>
+        <v>2260.901519544682</v>
       </c>
       <c r="U42" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V42" t="n">
-        <v>1797.681564447354</v>
+        <v>1797.681564447355</v>
       </c>
       <c r="W42" t="n">
         <v>1543.444207719153</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>797.237485440698</v>
+        <v>582.2589880867702</v>
       </c>
       <c r="C43" t="n">
-        <v>664.1552583572818</v>
+        <v>449.176761003354</v>
       </c>
       <c r="D43" t="n">
-        <v>549.8925747894366</v>
+        <v>334.9140774355089</v>
       </c>
       <c r="E43" t="n">
-        <v>437.8334370515342</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="F43" t="n">
-        <v>326.7974453981147</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G43" t="n">
         <v>194.9485646173243</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7585,7 +7585,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
@@ -7597,22 +7597,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1792.499959332879</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.669426971483</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1320.106212779013</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.970617725487</v>
+        <v>912.9921203715585</v>
       </c>
       <c r="Y43" t="n">
-        <v>943.0319944264471</v>
+        <v>728.0534970725191</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
@@ -7634,64 +7634,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>849.7061875343529</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.318051576954</v>
+        <v>1300.740400782762</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.868354406782</v>
+        <v>1834.272305454686</v>
       </c>
       <c r="N44" t="n">
-        <v>3016.620626633429</v>
+        <v>2814.024577681333</v>
       </c>
       <c r="O44" t="n">
-        <v>3519.593097512766</v>
+        <v>3316.99704856067</v>
       </c>
       <c r="P44" t="n">
-        <v>3914.367463869944</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q44" t="n">
-        <v>4162.653825625626</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285977</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474707</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862196</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E45" t="n">
-        <v>476.992177780764</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076491</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402678</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702904</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K45" t="n">
         <v>416.5268021506373</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N45" t="n">
         <v>1704.024331240073</v>
@@ -7764,7 +7764,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X45" t="n">
         <v>1335.59270751362</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>797.2374854406983</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C46" t="n">
-        <v>664.155258357282</v>
+        <v>449.1767610033532</v>
       </c>
       <c r="D46" t="n">
-        <v>549.8925747894369</v>
+        <v>439.5293438517853</v>
       </c>
       <c r="E46" t="n">
-        <v>437.8334370515345</v>
+        <v>327.4702061138828</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981147</v>
+        <v>216.4342144604631</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173243</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497936</v>
@@ -7822,7 +7822,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
@@ -7834,7 +7834,7 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
         <v>1577.521461978951</v>
@@ -7843,13 +7843,13 @@
         <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1320.106212779014</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.970617725487</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.0319944264473</v>
+        <v>728.0534970725184</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.0586514907067</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>281.5606805307984</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>216.9877583263338</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>82.70159106555775</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>192.1853085771352</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="N23" t="n">
-        <v>288.0478149561043</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>46.30618790178823</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>426.998343622192</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>27.35822683245399</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>69.67092241928714</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>87.00992788113774</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.5248359133017</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.672516970919659</v>
+        <v>39.52483591329981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>244.8710598038467</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>7.672516970919659</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370432</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.59472895491461</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.8695794051957</v>
+        <v>53.7364564735477</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>82.28749133742953</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>162.5760987035353</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983803</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056128</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>59.37910215558929</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.541337201726</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>61.35304109311551</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.89572590292404</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.81425495943322</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>102.9030806435041</v>
       </c>
       <c r="E40" t="n">
-        <v>50.64002803513002</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>109.9256317368855</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>102.9030806435031</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>212.8287123803898</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.5691137521143</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>212.8287123803894</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305818</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778753.2048305819</v>
+        <v>778753.2048305818</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305819</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790480.0991298794</v>
+        <v>790480.0991298793</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790480.0991298793</v>
+        <v>790480.0991298791</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191733</v>
       </c>
       <c r="G2" t="n">
         <v>635330.859019173</v>
@@ -26332,13 +26332,13 @@
         <v>635330.859019173</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
         <v>635330.859019173</v>
@@ -26353,7 +26353,7 @@
         <v>651578.6501345463</v>
       </c>
       <c r="P2" t="n">
-        <v>651578.6501345468</v>
+        <v>651578.6501345466</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394247</v>
+        <v>507203.1428394275</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418243</v>
+        <v>78665.28217417965</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.802132025361061e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410731</v>
+        <v>157829.4001410736</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022214</v>
+        <v>18289.94367022148</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455559</v>
+        <v>223242.9088455551</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,19 +26424,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
@@ -26448,13 +26448,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
+        <v>53328.24410000349</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53328.24410000352</v>
+      </c>
+      <c r="O4" t="n">
         <v>53328.2441000035</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53328.24410000349</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53328.24410000351</v>
       </c>
       <c r="P4" t="n">
         <v>53328.2441000035</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133418</v>
+        <v>77204.68871133437</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
         <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150817.3245048875</v>
+        <v>-150817.3245048902</v>
       </c>
       <c r="C6" t="n">
-        <v>294244.5497261029</v>
+        <v>294244.5497261061</v>
       </c>
       <c r="D6" t="n">
-        <v>372909.8319002856</v>
+        <v>372909.8319002858</v>
       </c>
       <c r="E6" t="n">
-        <v>-213520.7969029411</v>
+        <v>-213587.992393167</v>
       </c>
       <c r="F6" t="n">
-        <v>513856.6170904654</v>
+        <v>513789.4216002402</v>
       </c>
       <c r="G6" t="n">
-        <v>513856.6170904656</v>
+        <v>513789.4216002396</v>
       </c>
       <c r="H6" t="n">
-        <v>513856.6170904654</v>
+        <v>513789.4216002396</v>
       </c>
       <c r="I6" t="n">
-        <v>513856.6170904656</v>
+        <v>513789.4216002396</v>
       </c>
       <c r="J6" t="n">
-        <v>356027.2169493921</v>
+        <v>355960.0214591661</v>
       </c>
       <c r="K6" t="n">
-        <v>495566.673420243</v>
+        <v>495499.4779300182</v>
       </c>
       <c r="L6" t="n">
-        <v>513856.6170904654</v>
+        <v>513789.4216002396</v>
       </c>
       <c r="M6" t="n">
-        <v>383375.5650251313</v>
+        <v>383359.143882141</v>
       </c>
       <c r="N6" t="n">
-        <v>507224.3562133063</v>
+        <v>507207.9350703161</v>
       </c>
       <c r="O6" t="n">
-        <v>507224.356213306</v>
+        <v>507207.9350703158</v>
       </c>
       <c r="P6" t="n">
-        <v>507224.3562133065</v>
+        <v>507207.9350703161</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688964</v>
+        <v>316.5685789688985</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877014</v>
+        <v>603.2219356877038</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688964</v>
+        <v>316.5685789688985</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524819033</v>
+        <v>61.17508524818817</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877014</v>
+        <v>603.2219356877038</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685423</v>
+        <v>71.06533706685168</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877013</v>
+        <v>603.2219356877038</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685423</v>
+        <v>71.06533706685168</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413542</v>
+        <v>383.0293982413541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877014</v>
+        <v>603.2219356877038</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685423</v>
+        <v>71.06533706685168</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.6956637471916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>333.216086754593</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14.50842072896384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015541</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>37.57496447487409</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4201388450818</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>60.28448944997243</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792401</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255628</v>
+        <v>52.99928112255601</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739104</v>
+        <v>38.36018782739072</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365111</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>40.87587917514728</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27594,7 +27594,7 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>351.7374786276615</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.0975279483342</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.4625525080455</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.25111528509447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168073</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.523608934806495e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604491</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.4954162860455</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.4954162860455</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604578</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392547</v>
+        <v>1.272637503392556</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161893</v>
+        <v>13.03339883161901</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954123</v>
+        <v>49.06335734954155</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035633</v>
+        <v>108.013517303564</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221699</v>
+        <v>161.8842628221709</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166196</v>
+        <v>200.8317428166209</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175768</v>
+        <v>223.4640100175783</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240909</v>
+        <v>227.0798913240924</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497312</v>
+        <v>214.4251021497326</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847277</v>
+        <v>183.0068637847289</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.430533194482</v>
+        <v>137.4305331944829</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248216</v>
+        <v>79.9423155724827</v>
       </c>
       <c r="S2" t="n">
-        <v>29.0002271085577</v>
+        <v>29.00022710855789</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100878</v>
+        <v>5.570970671100915</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714038</v>
+        <v>0.1018110002714044</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859281</v>
+        <v>0.6809210943859326</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674622</v>
+        <v>6.576264253674665</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986639</v>
+        <v>23.44399381986654</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933016</v>
+        <v>64.33211093933059</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631873</v>
+        <v>109.9538242631881</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665587</v>
+        <v>147.8464858665596</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380485</v>
+        <v>172.5298755380497</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648735</v>
+        <v>177.0962279648746</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313747</v>
+        <v>162.0084500313758</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674322</v>
+        <v>130.0260640674331</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915812</v>
+        <v>86.9189803991587</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248772</v>
+        <v>42.276837772488</v>
       </c>
       <c r="S3" t="n">
-        <v>12.6478106786158</v>
+        <v>12.64781067861589</v>
       </c>
       <c r="T3" t="n">
-        <v>2.74458984973977</v>
+        <v>2.744589849739789</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012686</v>
+        <v>0.04479744042012716</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111245</v>
+        <v>0.5708613719111283</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173456</v>
+        <v>5.07547656117349</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801819</v>
+        <v>17.1673583480183</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941165</v>
+        <v>40.35989899411677</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840155</v>
+        <v>66.32371211840199</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667756</v>
+        <v>84.87151705667813</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148653</v>
+        <v>89.48511487148713</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890877</v>
+        <v>87.35735884890936</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952197</v>
+        <v>80.68866009522024</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823271</v>
+        <v>69.04308810823316</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430335</v>
+        <v>47.80185542430367</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065837</v>
+        <v>25.66800314065854</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760231</v>
+        <v>9.948556817760297</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711168</v>
+        <v>2.439134952711184</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0311378930133341</v>
+        <v>0.03113789301333431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895079</v>
+        <v>96.0642279489515</v>
       </c>
       <c r="K2" t="n">
-        <v>265.939824348354</v>
+        <v>265.9398243483552</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970828</v>
+        <v>382.7265423970841</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831365</v>
+        <v>442.631310283138</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394841</v>
+        <v>435.0137521394856</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907898</v>
+        <v>365.1270719907913</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009408</v>
+        <v>273.572576200942</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799372</v>
+        <v>127.4398339799381</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307231</v>
+        <v>63.58551961307273</v>
       </c>
       <c r="K3" t="n">
-        <v>236.577622301407</v>
+        <v>236.5776223014077</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901436</v>
+        <v>182.3507575773921</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660301</v>
+        <v>496.1009053660313</v>
       </c>
       <c r="N3" t="n">
-        <v>327.3151964123385</v>
+        <v>525.0968902250949</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636598</v>
+        <v>413.2745248636609</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930391</v>
+        <v>314.5144252930399</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489857</v>
+        <v>157.0144940489863</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251869</v>
+        <v>44.05422029251913</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169937</v>
+        <v>112.4615423169943</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333271</v>
+        <v>129.0689918333277</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281374</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092594</v>
+        <v>105.2737880092599</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3216473731262</v>
+        <v>66.32164737312665</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>648.4398196822187</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35647,22 +35647,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>672.577872718666</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>571.2615849349731</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378936</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>621.6227068957845</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36121,22 +36121,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>744.4871439900467</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>711.4207145458281</v>
       </c>
       <c r="N23" t="n">
-        <v>840.3496503690155</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>554.3591887900074</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36835,25 +36835,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37005,7 +37005,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
         <v>78.39423853789366</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>965.9194594524188</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>218.1452278011666</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>525.2610368116193</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795296</v>
@@ -37476,7 +37476,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311562</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>595.0629287693569</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>99.13803445552648</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37713,7 +37713,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>67.28571551314444</v>
+        <v>99.13803445552465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>582.0623463592472</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>67.28571551314444</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
@@ -38187,7 +38187,7 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311562</v>
